--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1204755.220092359</v>
+        <v>1221400.339396047</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111181</v>
+        <v>713587.7684111177</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7381619.743025537</v>
+        <v>7381619.743025538</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,67 +667,67 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>196.9826481283071</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G2" t="n">
-        <v>45.5495227460362</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R2" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>112.2064231095661</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>135.6073312417935</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>186.0850531309659</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1026,16 +1028,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>175.1829114873691</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>157.9712663400187</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>178.1573130319831</v>
-      </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>183.4693513325733</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1147,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>241.0142888776591</v>
@@ -1215,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>3.567993827202728</v>
+        <v>90.09798413141016</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1230,7 +1232,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1260,10 +1262,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -1294,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>37.10634673358876</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>180.8841153040769</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>117.3450705775783</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>120.9830058185666</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1461,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>83.70319472769579</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>165.8272126914158</v>
@@ -1512,7 +1514,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>21.38816470214935</v>
       </c>
       <c r="J13" t="n">
         <v>74.67247646141476</v>
@@ -1576,7 +1578,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>21.3881647021493</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>23.32383399721623</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>44.93243993059782</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>220.5164804230398</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1698,13 +1700,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>94.71041441558037</v>
+        <v>76.0796708001852</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
         <v>198.8939788055617</v>
@@ -1752,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>21.3881647021493</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>96.06064116356411</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1850,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>47.74806282379119</v>
+        <v>117.3450705775783</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1926,16 +1928,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
         <v>109.1906224126114</v>
@@ -1974,7 +1976,7 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
         <v>225.9206407878966</v>
@@ -1983,10 +1985,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>231.5778638453921</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>94.1200107839131</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2056,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>99.78974769572881</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>38.97640474817496</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,22 +2083,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>106.7662644756468</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2144,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>159.1872506763352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,25 +2162,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>38.7256990424358</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>28.22627554698719</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>98.68313739545474</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>145.6674229028287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>86.65804289016221</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>83.00594019831846</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2381,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,25 +2399,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>8.170411632321398</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
-        <v>109.1906224126114</v>
+        <v>31.12541867218023</v>
       </c>
       <c r="I24" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2518,16 +2520,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>96.06064116356414</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>261.4697023004217</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2564,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>168.0120963982006</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
         <v>195.5929138346465</v>
@@ -2612,10 +2614,10 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>83.85219763151034</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2643,13 +2645,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>57.31149677446328</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>113.4883178883723</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2716,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>39.19479062707046</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3046124576955</v>
+        <v>160.0903419479084</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2792,13 +2794,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>149.6019319835427</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2837,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>83.85219763151079</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>43.10070109604781</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>53.00588247258134</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -2919,19 +2921,19 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2962,16 +2964,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>90.94970861955596</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2992,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3001,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>34.65343661111039</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3035,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>202.1911205836252</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>125.1103659546714</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,28 +3107,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>107.9062730506632</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>46.57473665873887</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,25 +3158,25 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>145.6674229028287</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3241,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>39.19479062707025</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>172.1899916613472</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
         <v>195.5929138346465</v>
@@ -3323,13 +3325,13 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>117.3450705775783</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.425224531302296</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>3.298222131972495</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9206407878966</v>
@@ -3411,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3430,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>12.35168551462429</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.7266695472104</v>
       </c>
       <c r="H37" t="n">
-        <v>157.7727335375556</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3557,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>85.67417889435382</v>
+        <v>141.6396260835078</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3597,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9206407878966</v>
+        <v>181.763878220868</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>231.0316868166755</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>98.68313739545468</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3703,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.06064116356411</v>
       </c>
       <c r="T40" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>56.06257007945304</v>
+        <v>141.639626083508</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3819,22 +3821,22 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>148.6941676914269</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>76.6144215918239</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
         <v>78.54202280713804</v>
@@ -3873,10 +3875,10 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3901,19 +3903,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>30.44996741998434</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>106.0890042129126</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3983,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>68.43220977537635</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>405.7415719969023</v>
@@ -3992,10 +3994,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>193.428909028942</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4059,22 +4061,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>46.94271415388166</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,19 +4106,19 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>32.90473339009669</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4177,10 +4179,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R46" t="n">
-        <v>98.68313739545469</v>
+        <v>34.65343661111039</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>559.1338160830064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C2" t="n">
-        <v>559.1338160830064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D2" t="n">
-        <v>559.1338160830064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E2" t="n">
-        <v>315.6850394389064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F2" t="n">
-        <v>308.7395386897029</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y2" t="n">
-        <v>559.1338160830064</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.5807722530562</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C3" t="n">
-        <v>109.5807722530562</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="D3" t="n">
-        <v>109.5807722530562</v>
+        <v>439.147110064363</v>
       </c>
       <c r="E3" t="n">
-        <v>109.5807722530562</v>
+        <v>279.9096550589075</v>
       </c>
       <c r="F3" t="n">
-        <v>109.5807722530562</v>
+        <v>133.3750970857925</v>
       </c>
       <c r="G3" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4419,7 +4421,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>454.3181732824481</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>454.3181732824481</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>317.3410710180102</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>109.5807722530562</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="4">
@@ -4462,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.7186438601369</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C5" t="n">
-        <v>53.75394372784808</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D5" t="n">
-        <v>53.75394372784808</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E5" t="n">
-        <v>53.75394372784808</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F5" t="n">
-        <v>46.80844297864461</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>485.167420504237</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>485.167420504237</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>193.7341723913397</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
         <v>304.2053859195205</v>
@@ -4674,22 +4676,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>588.4532163200711</v>
+        <v>613.6873751154777</v>
       </c>
       <c r="U6" t="n">
-        <v>588.4532163200711</v>
+        <v>613.6873751154777</v>
       </c>
       <c r="V6" t="n">
-        <v>353.3011080883284</v>
+        <v>613.6873751154777</v>
       </c>
       <c r="W6" t="n">
-        <v>193.7341723913397</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="X6" t="n">
-        <v>193.7341723913397</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="Y6" t="n">
-        <v>193.7341723913397</v>
+        <v>370.2385984713777</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="H7" t="n">
         <v>19.28114311021272</v>
@@ -4744,31 +4746,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.7108255783361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C8" t="n">
-        <v>53.75394372784808</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D8" t="n">
-        <v>53.75394372784808</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="E8" t="n">
-        <v>53.75394372784808</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>432.4774131586771</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="C9" t="n">
-        <v>432.4774131586771</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="D9" t="n">
-        <v>283.5430034974258</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="E9" t="n">
-        <v>279.9389693285341</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F9" t="n">
-        <v>133.4044113554191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G9" t="n">
-        <v>133.4044113554191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4884,13 +4886,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>249.2442489785619</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
         <v>473.4149733950735</v>
@@ -4908,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>660.701031422288</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>432.4774131586771</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V9" t="n">
-        <v>432.4774131586771</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W9" t="n">
-        <v>432.4774131586771</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="X9" t="n">
-        <v>432.4774131586771</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="Y9" t="n">
-        <v>432.4774131586771</v>
+        <v>461.2466632505798</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -4987,25 +4989,25 @@
         <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C11" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D11" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E11" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F11" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G11" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H11" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I11" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K11" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L11" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5072,19 +5074,19 @@
         <v>1088.658125761969</v>
       </c>
       <c r="U11" t="n">
-        <v>905.9468981820935</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="V11" t="n">
-        <v>574.8840108385228</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="W11" t="n">
-        <v>222.1153555684087</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="X11" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y11" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>455.571351529534</v>
+        <v>329.1174114232697</v>
       </c>
       <c r="C12" t="n">
-        <v>455.571351529534</v>
+        <v>154.6643821421427</v>
       </c>
       <c r="D12" t="n">
-        <v>306.6369418682827</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E12" t="n">
-        <v>306.6369418682827</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F12" t="n">
-        <v>306.6369418682827</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G12" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H12" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I12" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K12" t="n">
-        <v>236.9655055809357</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L12" t="n">
-        <v>256.6067387278474</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M12" t="n">
-        <v>656.0248753321104</v>
+        <v>905.3665017627701</v>
       </c>
       <c r="N12" t="n">
-        <v>1057.709031609044</v>
+        <v>948.4732699082808</v>
       </c>
       <c r="O12" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q12" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S12" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T12" t="n">
-        <v>1173.163483952</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U12" t="n">
-        <v>944.9608164894784</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V12" t="n">
-        <v>709.8087082577356</v>
+        <v>791.2062683570041</v>
       </c>
       <c r="W12" t="n">
-        <v>455.571351529534</v>
+        <v>536.9689116288025</v>
       </c>
       <c r="X12" t="n">
-        <v>455.571351529534</v>
+        <v>329.1174114232697</v>
       </c>
       <c r="Y12" t="n">
-        <v>455.571351529534</v>
+        <v>329.1174114232697</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>107.8860696601711</v>
+        <v>129.490276430019</v>
       </c>
       <c r="C13" t="n">
-        <v>107.8860696601711</v>
+        <v>129.490276430019</v>
       </c>
       <c r="D13" t="n">
-        <v>107.8860696601711</v>
+        <v>129.490276430019</v>
       </c>
       <c r="E13" t="n">
-        <v>107.8860696601711</v>
+        <v>129.490276430019</v>
       </c>
       <c r="F13" t="n">
-        <v>107.8860696601711</v>
+        <v>129.490276430019</v>
       </c>
       <c r="G13" t="n">
-        <v>107.8860696601711</v>
+        <v>129.490276430019</v>
       </c>
       <c r="H13" t="n">
-        <v>107.8860696601711</v>
+        <v>129.490276430019</v>
       </c>
       <c r="I13" t="n">
         <v>107.8860696601711</v>
@@ -5221,28 +5223,28 @@
         <v>296.5701361642185</v>
       </c>
       <c r="R13" t="n">
-        <v>129.4902764300189</v>
+        <v>129.490276430019</v>
       </c>
       <c r="S13" t="n">
-        <v>107.8860696601711</v>
+        <v>129.490276430019</v>
       </c>
       <c r="T13" t="n">
-        <v>107.8860696601711</v>
+        <v>129.490276430019</v>
       </c>
       <c r="U13" t="n">
-        <v>107.8860696601711</v>
+        <v>129.490276430019</v>
       </c>
       <c r="V13" t="n">
-        <v>107.8860696601711</v>
+        <v>129.490276430019</v>
       </c>
       <c r="W13" t="n">
-        <v>107.8860696601711</v>
+        <v>129.490276430019</v>
       </c>
       <c r="X13" t="n">
-        <v>107.8860696601711</v>
+        <v>129.490276430019</v>
       </c>
       <c r="Y13" t="n">
-        <v>107.8860696601711</v>
+        <v>129.490276430019</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>811.2618144142068</v>
+        <v>727.5334240793518</v>
       </c>
       <c r="C14" t="n">
-        <v>442.299297473795</v>
+        <v>727.5334240793518</v>
       </c>
       <c r="D14" t="n">
-        <v>442.299297473795</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="E14" t="n">
-        <v>442.299297473795</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="F14" t="n">
-        <v>442.299297473795</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="G14" t="n">
-        <v>32.45932575975219</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H14" t="n">
         <v>32.45932575975219</v>
@@ -5282,10 +5284,10 @@
         <v>247.3580469011319</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941459</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5300,28 +5302,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R14" t="n">
-        <v>1508.970645214178</v>
+        <v>1577.57998502741</v>
       </c>
       <c r="S14" t="n">
-        <v>1311.402045381201</v>
+        <v>1577.57998502741</v>
       </c>
       <c r="T14" t="n">
-        <v>1088.658125761969</v>
+        <v>1354.836065408178</v>
       </c>
       <c r="U14" t="n">
-        <v>834.8212426942232</v>
+        <v>1100.999182340432</v>
       </c>
       <c r="V14" t="n">
-        <v>834.8212426942232</v>
+        <v>1100.999182340432</v>
       </c>
       <c r="W14" t="n">
-        <v>834.8212426942232</v>
+        <v>1100.999182340432</v>
       </c>
       <c r="X14" t="n">
-        <v>834.8212426942232</v>
+        <v>727.5334240793518</v>
       </c>
       <c r="Y14" t="n">
-        <v>834.8212426942232</v>
+        <v>727.5334240793518</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>207.4617876008819</v>
+        <v>247.7198513240014</v>
       </c>
       <c r="C15" t="n">
-        <v>207.4617876008819</v>
+        <v>247.7198513240014</v>
       </c>
       <c r="D15" t="n">
-        <v>207.4617876008819</v>
+        <v>247.7198513240014</v>
       </c>
       <c r="E15" t="n">
-        <v>207.4617876008819</v>
+        <v>247.7198513240014</v>
       </c>
       <c r="F15" t="n">
-        <v>207.4617876008819</v>
+        <v>247.7198513240014</v>
       </c>
       <c r="G15" t="n">
-        <v>207.4617876008819</v>
+        <v>109.3074780831716</v>
       </c>
       <c r="H15" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I15" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K15" t="n">
-        <v>236.9655055809358</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L15" t="n">
-        <v>534.697260562599</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M15" t="n">
-        <v>934.1153971668621</v>
+        <v>656.0248753321105</v>
       </c>
       <c r="N15" t="n">
-        <v>1299.952780813052</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O15" t="n">
-        <v>1622.96628798761</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P15" t="n">
         <v>1622.96628798761</v>
@@ -5382,25 +5384,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S15" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T15" t="n">
-        <v>1340.665718993835</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U15" t="n">
-        <v>1112.463051531313</v>
+        <v>944.9608164894786</v>
       </c>
       <c r="V15" t="n">
-        <v>877.3109432995702</v>
+        <v>709.8087082577358</v>
       </c>
       <c r="W15" t="n">
-        <v>623.0735865713687</v>
+        <v>455.5713515295342</v>
       </c>
       <c r="X15" t="n">
-        <v>415.2220863658358</v>
+        <v>247.7198513240014</v>
       </c>
       <c r="Y15" t="n">
-        <v>207.4617876008819</v>
+        <v>247.7198513240014</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="C16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="D16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="E16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="F16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="G16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="H16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="I16" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J16" t="n">
         <v>32.45932575975219</v>
@@ -5458,28 +5460,28 @@
         <v>296.5701361642185</v>
       </c>
       <c r="R16" t="n">
-        <v>129.490276430019</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="S16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="T16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="U16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="V16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="W16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="X16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.45932575975219</v>
+        <v>129.4902764300189</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1622.966287987609</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="C17" t="n">
-        <v>1622.966287987609</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="D17" t="n">
-        <v>1622.966287987609</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="E17" t="n">
-        <v>1237.178035389365</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="F17" t="n">
-        <v>827.338063675322</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="G17" t="n">
-        <v>417.4980919612793</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="H17" t="n">
-        <v>80.68969224843016</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="I17" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J17" t="n">
-        <v>70.13987180521507</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K17" t="n">
         <v>247.3580469011319</v>
@@ -5528,7 +5530,7 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O17" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P17" t="n">
         <v>1569.862809315274</v>
@@ -5537,28 +5539,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S17" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T17" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U17" t="n">
-        <v>1622.966287987609</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="V17" t="n">
-        <v>1622.966287987609</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="W17" t="n">
-        <v>1622.966287987609</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="X17" t="n">
-        <v>1622.966287987609</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="Y17" t="n">
-        <v>1622.966287987609</v>
+        <v>150.9897000805384</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>676.7946829649775</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="C18" t="n">
-        <v>676.7946829649775</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="D18" t="n">
-        <v>527.8602733037262</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="E18" t="n">
-        <v>368.6228182982707</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="F18" t="n">
-        <v>222.0882603251556</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G18" t="n">
         <v>222.0882603251556</v>
@@ -5589,28 +5591,28 @@
         <v>111.7947023326189</v>
       </c>
       <c r="I18" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J18" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K18" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9399761455072</v>
+        <v>147.3709770270845</v>
       </c>
       <c r="M18" t="n">
-        <v>758.3581127497703</v>
+        <v>546.7891136313475</v>
       </c>
       <c r="N18" t="n">
-        <v>1160.042269026703</v>
+        <v>948.4732699082808</v>
       </c>
       <c r="O18" t="n">
-        <v>1483.055776201262</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P18" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q18" t="n">
         <v>1622.966287987609</v>
@@ -5622,22 +5624,22 @@
         <v>1374.066492846507</v>
       </c>
       <c r="T18" t="n">
-        <v>1374.066492846507</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U18" t="n">
-        <v>1145.863825383985</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V18" t="n">
-        <v>910.7117171522423</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="W18" t="n">
-        <v>676.7946829649775</v>
+        <v>455.571351529534</v>
       </c>
       <c r="X18" t="n">
-        <v>676.7946829649775</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="Y18" t="n">
-        <v>676.7946829649775</v>
+        <v>360.5006335659854</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
@@ -5704,19 +5706,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>361.2466016029501</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="V19" t="n">
-        <v>361.2466016029501</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="W19" t="n">
-        <v>71.82943156598952</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="X19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>401.4218427001639</v>
+        <v>862.900689662408</v>
       </c>
       <c r="C20" t="n">
-        <v>32.45932575975218</v>
+        <v>862.900689662408</v>
       </c>
       <c r="D20" t="n">
-        <v>32.45932575975218</v>
+        <v>862.900689662408</v>
       </c>
       <c r="E20" t="n">
-        <v>32.45932575975218</v>
+        <v>477.1124370641638</v>
       </c>
       <c r="F20" t="n">
-        <v>32.45932575975218</v>
+        <v>477.1124370641638</v>
       </c>
       <c r="G20" t="n">
-        <v>32.45932575975218</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J20" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521511</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L20" t="n">
         <v>519.4894913528326</v>
@@ -5765,37 +5767,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O20" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P20" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q20" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R20" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S20" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T20" t="n">
-        <v>1202.653768535401</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U20" t="n">
-        <v>948.8168854676546</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V20" t="n">
-        <v>948.8168854676546</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W20" t="n">
-        <v>948.8168854676546</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="X20" t="n">
-        <v>948.8168854676546</v>
+        <v>1249.50052972653</v>
       </c>
       <c r="Y20" t="n">
-        <v>788.0216827642857</v>
+        <v>1249.50052972653</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>843.1255275138191</v>
+        <v>328.4043094450361</v>
       </c>
       <c r="C21" t="n">
-        <v>668.6724982326921</v>
+        <v>328.4043094450361</v>
       </c>
       <c r="D21" t="n">
-        <v>519.7380885714408</v>
+        <v>328.4043094450361</v>
       </c>
       <c r="E21" t="n">
-        <v>360.5006335659854</v>
+        <v>289.2874417254039</v>
       </c>
       <c r="F21" t="n">
-        <v>360.5006335659854</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G21" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H21" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J21" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384405</v>
       </c>
       <c r="K21" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L21" t="n">
-        <v>330.1910807414154</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M21" t="n">
-        <v>729.6092173456784</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N21" t="n">
-        <v>1131.293373622612</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O21" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P21" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q21" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R21" t="n">
-        <v>1594.454898546208</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S21" t="n">
-        <v>1426.952663504374</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T21" t="n">
-        <v>1426.952663504374</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="U21" t="n">
-        <v>1426.952663504374</v>
+        <v>1193.860611630581</v>
       </c>
       <c r="V21" t="n">
-        <v>1426.952663504374</v>
+        <v>958.7085033988385</v>
       </c>
       <c r="W21" t="n">
-        <v>1426.952663504374</v>
+        <v>704.4711466706369</v>
       </c>
       <c r="X21" t="n">
-        <v>1219.101163298841</v>
+        <v>496.6196464651041</v>
       </c>
       <c r="Y21" t="n">
-        <v>1011.340864533887</v>
+        <v>496.6196464651041</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J22" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191287</v>
       </c>
       <c r="L22" t="n">
         <v>107.0302722280248</v>
@@ -5920,40 +5922,40 @@
         <v>187.235757098444</v>
       </c>
       <c r="N22" t="n">
-        <v>270.9687512285709</v>
+        <v>270.968751228571</v>
       </c>
       <c r="O22" t="n">
         <v>332.2934283710737</v>
       </c>
       <c r="P22" t="n">
-        <v>361.2466016029501</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="Q22" t="n">
-        <v>361.2466016029501</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="R22" t="n">
-        <v>361.2466016029501</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="S22" t="n">
-        <v>361.2466016029501</v>
+        <v>361.2466016029502</v>
       </c>
       <c r="T22" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228378</v>
       </c>
       <c r="U22" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228378</v>
       </c>
       <c r="V22" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228378</v>
       </c>
       <c r="W22" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X22" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y22" t="n">
-        <v>214.1077905899919</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>119.9927024164817</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="C23" t="n">
-        <v>32.45932575975218</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="D23" t="n">
-        <v>32.45932575975218</v>
+        <v>911.9319341107448</v>
       </c>
       <c r="E23" t="n">
-        <v>32.45932575975218</v>
+        <v>526.1436815125005</v>
       </c>
       <c r="F23" t="n">
-        <v>32.45932575975218</v>
+        <v>116.3037097984577</v>
       </c>
       <c r="G23" t="n">
-        <v>32.45932575975218</v>
+        <v>116.3037097984577</v>
       </c>
       <c r="H23" t="n">
-        <v>32.45932575975218</v>
+        <v>116.3037097984577</v>
       </c>
       <c r="I23" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521519</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011321</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6029,10 +6031,10 @@
         <v>1270.197632717495</v>
       </c>
       <c r="X23" t="n">
-        <v>896.7318744564152</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.5925424806035</v>
+        <v>1270.197632717495</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>368.7535746087343</v>
+        <v>536.0020001277505</v>
       </c>
       <c r="C24" t="n">
-        <v>368.7535746087343</v>
+        <v>361.5489708466235</v>
       </c>
       <c r="D24" t="n">
-        <v>368.7535746087343</v>
+        <v>361.5489708466235</v>
       </c>
       <c r="E24" t="n">
-        <v>368.7535746087343</v>
+        <v>202.311515841168</v>
       </c>
       <c r="F24" t="n">
-        <v>360.5006335659854</v>
+        <v>202.311515841168</v>
       </c>
       <c r="G24" t="n">
-        <v>222.0882603251556</v>
+        <v>63.89914260033828</v>
       </c>
       <c r="H24" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I24" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J24" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K24" t="n">
-        <v>208.2166101768439</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L24" t="n">
-        <v>505.948365158507</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M24" t="n">
-        <v>905.36650176277</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N24" t="n">
-        <v>1190.717019112288</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O24" t="n">
-        <v>1513.730526286846</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P24" t="n">
         <v>1513.730526286846</v>
@@ -6090,28 +6092,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S24" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T24" t="n">
-        <v>1254.561044051268</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U24" t="n">
-        <v>1026.358376588747</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="V24" t="n">
-        <v>791.2062683570039</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="W24" t="n">
-        <v>536.9689116288023</v>
+        <v>1119.829136118305</v>
       </c>
       <c r="X24" t="n">
-        <v>536.9689116288023</v>
+        <v>911.9776359127725</v>
       </c>
       <c r="Y24" t="n">
-        <v>536.9689116288023</v>
+        <v>704.2173371478186</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L25" t="n">
         <v>107.0302722280248</v>
@@ -6169,28 +6171,28 @@
         <v>296.5701361642185</v>
       </c>
       <c r="R25" t="n">
-        <v>296.5701361642185</v>
+        <v>129.490276430019</v>
       </c>
       <c r="S25" t="n">
-        <v>296.5701361642185</v>
+        <v>129.490276430019</v>
       </c>
       <c r="T25" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U25" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V25" t="n">
-        <v>296.5701361642185</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>948.8168854676549</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C26" t="n">
-        <v>948.8168854676549</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D26" t="n">
-        <v>948.8168854676549</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E26" t="n">
-        <v>948.8168854676549</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F26" t="n">
-        <v>779.1076971866441</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G26" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J26" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L26" t="n">
         <v>519.4894913528326</v>
@@ -6248,28 +6250,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S26" t="n">
-        <v>1425.397688154633</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T26" t="n">
-        <v>1202.653768535401</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U26" t="n">
-        <v>948.8168854676549</v>
+        <v>834.8212426942227</v>
       </c>
       <c r="V26" t="n">
-        <v>948.8168854676549</v>
+        <v>503.7583553506521</v>
       </c>
       <c r="W26" t="n">
-        <v>948.8168854676549</v>
+        <v>419.059165823874</v>
       </c>
       <c r="X26" t="n">
-        <v>948.8168854676549</v>
+        <v>419.059165823874</v>
       </c>
       <c r="Y26" t="n">
-        <v>948.8168854676549</v>
+        <v>419.059165823874</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>206.9123550408792</v>
+        <v>549.7496870371101</v>
       </c>
       <c r="C27" t="n">
-        <v>32.45932575975219</v>
+        <v>375.2966577559831</v>
       </c>
       <c r="D27" t="n">
-        <v>32.45932575975219</v>
+        <v>375.2966577559831</v>
       </c>
       <c r="E27" t="n">
-        <v>32.45932575975219</v>
+        <v>375.2966577559831</v>
       </c>
       <c r="F27" t="n">
-        <v>32.45932575975219</v>
+        <v>228.7620997828681</v>
       </c>
       <c r="G27" t="n">
-        <v>32.45932575975219</v>
+        <v>90.34972654203833</v>
       </c>
       <c r="H27" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I27" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J27" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K27" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L27" t="n">
-        <v>505.9483651585071</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M27" t="n">
-        <v>905.3665017627701</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N27" t="n">
-        <v>1057.709031609044</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O27" t="n">
         <v>1380.722538783602</v>
@@ -6330,25 +6332,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S27" t="n">
-        <v>1508.3316234539</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T27" t="n">
-        <v>1508.3316234539</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U27" t="n">
-        <v>1280.128955991378</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V27" t="n">
-        <v>1044.976847759636</v>
+        <v>1387.814179755866</v>
       </c>
       <c r="W27" t="n">
-        <v>790.739491031434</v>
+        <v>1133.576823027665</v>
       </c>
       <c r="X27" t="n">
-        <v>582.8879908259012</v>
+        <v>925.7253228221321</v>
       </c>
       <c r="Y27" t="n">
-        <v>375.1276920609473</v>
+        <v>717.9650240571782</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C28" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K28" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L28" t="n">
         <v>107.0302722280248</v>
@@ -6406,28 +6408,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R28" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="S28" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="T28" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="U28" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V28" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W28" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X28" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y28" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>552.534905309803</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C29" t="n">
-        <v>183.5723883693913</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D29" t="n">
-        <v>183.5723883693913</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E29" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F29" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G29" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H29" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I29" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521507</v>
       </c>
       <c r="K29" t="n">
         <v>247.3580469011319</v>
@@ -6485,28 +6487,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R29" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S29" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T29" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U29" t="n">
-        <v>1622.966287987609</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="V29" t="n">
-        <v>1291.903400644039</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="W29" t="n">
-        <v>939.1347453739247</v>
+        <v>419.059165823874</v>
       </c>
       <c r="X29" t="n">
-        <v>939.1347453739247</v>
+        <v>419.059165823874</v>
       </c>
       <c r="Y29" t="n">
-        <v>939.1347453739247</v>
+        <v>419.059165823874</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>709.8087082577356</v>
+        <v>883.9639259083285</v>
       </c>
       <c r="C30" t="n">
-        <v>709.8087082577356</v>
+        <v>709.5108966272015</v>
       </c>
       <c r="D30" t="n">
-        <v>666.272646544556</v>
+        <v>560.5764869659503</v>
       </c>
       <c r="E30" t="n">
         <v>507.0351915391004</v>
@@ -6537,22 +6539,22 @@
         <v>111.7947023326189</v>
       </c>
       <c r="I30" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J30" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K30" t="n">
-        <v>236.9655055809358</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L30" t="n">
-        <v>534.697260562599</v>
+        <v>147.3709770270844</v>
       </c>
       <c r="M30" t="n">
-        <v>934.1153971668621</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N30" t="n">
-        <v>948.4732699082808</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O30" t="n">
         <v>1271.486777082839</v>
@@ -6567,25 +6569,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S30" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T30" t="n">
-        <v>1173.163483952</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U30" t="n">
-        <v>944.9608164894784</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="V30" t="n">
-        <v>709.8087082577356</v>
+        <v>1306.416619656598</v>
       </c>
       <c r="W30" t="n">
-        <v>709.8087082577356</v>
+        <v>1052.179262928397</v>
       </c>
       <c r="X30" t="n">
-        <v>709.8087082577356</v>
+        <v>1052.179262928397</v>
       </c>
       <c r="Y30" t="n">
-        <v>709.8087082577356</v>
+        <v>1052.179262928397</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C31" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D31" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E31" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F31" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G31" t="n">
-        <v>269.3782090579441</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H31" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I31" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J31" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K31" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L31" t="n">
         <v>107.0302722280248</v>
@@ -6640,31 +6642,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q31" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R31" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="S31" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="T31" t="n">
-        <v>361.2466016029501</v>
+        <v>67.46279708410611</v>
       </c>
       <c r="U31" t="n">
-        <v>361.2466016029501</v>
+        <v>67.46279708410611</v>
       </c>
       <c r="V31" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W31" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X31" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y31" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1164.895949784888</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="C32" t="n">
-        <v>1164.895949784888</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="D32" t="n">
-        <v>1164.895949784888</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="E32" t="n">
-        <v>779.1076971866441</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="F32" t="n">
-        <v>369.2677254726013</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="G32" t="n">
-        <v>369.2677254726013</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="H32" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I32" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521507</v>
       </c>
       <c r="K32" t="n">
         <v>247.3580469011319</v>
@@ -6713,37 +6715,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O32" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P32" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q32" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R32" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S32" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="T32" t="n">
-        <v>1418.732832852634</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U32" t="n">
-        <v>1164.895949784888</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V32" t="n">
-        <v>1164.895949784888</v>
+        <v>1038.066517576292</v>
       </c>
       <c r="W32" t="n">
-        <v>1164.895949784888</v>
+        <v>685.2978623061783</v>
       </c>
       <c r="X32" t="n">
-        <v>1164.895949784888</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="Y32" t="n">
-        <v>1164.895949784888</v>
+        <v>558.9237552812577</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>989.6600854869342</v>
+        <v>79.50451430393287</v>
       </c>
       <c r="C33" t="n">
-        <v>815.2070562058072</v>
+        <v>79.50451430393287</v>
       </c>
       <c r="D33" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E33" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F33" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G33" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H33" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L33" t="n">
-        <v>256.6067387278474</v>
+        <v>147.3709770270844</v>
       </c>
       <c r="M33" t="n">
-        <v>656.0248753321104</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N33" t="n">
-        <v>1057.709031609044</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O33" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P33" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q33" t="n">
         <v>1622.966287987609</v>
@@ -6804,25 +6806,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S33" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T33" t="n">
-        <v>1541.568727888341</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U33" t="n">
-        <v>1541.568727888341</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V33" t="n">
-        <v>1306.416619656598</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W33" t="n">
-        <v>1306.416619656598</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X33" t="n">
-        <v>1306.416619656598</v>
+        <v>247.7198513240009</v>
       </c>
       <c r="Y33" t="n">
-        <v>1098.656320891645</v>
+        <v>247.7198513240009</v>
       </c>
     </row>
     <row r="34">
@@ -6832,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1294.179012144412</v>
+        <v>1441.31782315737</v>
       </c>
       <c r="C34" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D34" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E34" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F34" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G34" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H34" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I34" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J34" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K34" t="n">
         <v>1302.533129726572</v>
@@ -6889,19 +6891,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U34" t="n">
-        <v>1333.769709747513</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V34" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W34" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X34" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y34" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>401.4218427001639</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C35" t="n">
         <v>32.45932575975219</v>
@@ -6959,28 +6961,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R35" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S35" t="n">
-        <v>1425.397688154633</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T35" t="n">
-        <v>1202.653768535401</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U35" t="n">
-        <v>948.8168854676551</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="V35" t="n">
-        <v>948.8168854676551</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="W35" t="n">
-        <v>948.8168854676551</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="X35" t="n">
-        <v>575.3511272065753</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y35" t="n">
-        <v>575.3511272065753</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>32.45932575975219</v>
+        <v>697.5226553596108</v>
       </c>
       <c r="C36" t="n">
-        <v>32.45932575975219</v>
+        <v>523.0696260784838</v>
       </c>
       <c r="D36" t="n">
-        <v>32.45932575975219</v>
+        <v>523.0696260784838</v>
       </c>
       <c r="E36" t="n">
-        <v>32.45932575975219</v>
+        <v>363.8321710730283</v>
       </c>
       <c r="F36" t="n">
-        <v>32.45932575975219</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G36" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H36" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I36" t="n">
         <v>32.45932575975219</v>
@@ -7017,19 +7019,19 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K36" t="n">
-        <v>32.45932575975219</v>
+        <v>91.88297124942903</v>
       </c>
       <c r="L36" t="n">
-        <v>330.1910807414154</v>
+        <v>389.6147262310922</v>
       </c>
       <c r="M36" t="n">
-        <v>546.7891136313476</v>
+        <v>789.0328628353552</v>
       </c>
       <c r="N36" t="n">
-        <v>948.4732699082811</v>
+        <v>1190.717019112289</v>
       </c>
       <c r="O36" t="n">
-        <v>1271.486777082839</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="P36" t="n">
         <v>1513.730526286847</v>
@@ -7038,28 +7040,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R36" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S36" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T36" t="n">
-        <v>1173.163483952</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U36" t="n">
-        <v>944.9608164894786</v>
+        <v>1394.763620525088</v>
       </c>
       <c r="V36" t="n">
-        <v>709.8087082577358</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="W36" t="n">
-        <v>455.5713515295342</v>
+        <v>905.3741555651436</v>
       </c>
       <c r="X36" t="n">
-        <v>247.7198513240014</v>
+        <v>697.5226553596108</v>
       </c>
       <c r="Y36" t="n">
-        <v>39.95955255904744</v>
+        <v>697.5226553596108</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E37" t="n">
-        <v>1622.96628798761</v>
+        <v>348.7701515881781</v>
       </c>
       <c r="F37" t="n">
-        <v>1622.96628798761</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="G37" t="n">
-        <v>1453.545409657094</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H37" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I37" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J37" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K37" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L37" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M37" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N37" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O37" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y37" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>759.6875413069145</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C38" t="n">
-        <v>390.7250243665027</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D38" t="n">
         <v>32.45932575975219</v>
@@ -7175,13 +7177,13 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K38" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7205,19 +7207,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U38" t="n">
-        <v>1536.426713346848</v>
+        <v>1479.895958610329</v>
       </c>
       <c r="V38" t="n">
-        <v>1536.426713346848</v>
+        <v>1148.833071266758</v>
       </c>
       <c r="W38" t="n">
-        <v>1536.426713346848</v>
+        <v>796.0644159966438</v>
       </c>
       <c r="X38" t="n">
-        <v>1536.426713346848</v>
+        <v>422.5986577355639</v>
       </c>
       <c r="Y38" t="n">
-        <v>1146.287381371036</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>476.4433680388714</v>
+        <v>366.1498100463347</v>
       </c>
       <c r="C39" t="n">
-        <v>301.9903387577444</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D39" t="n">
-        <v>301.9903387577444</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E39" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F39" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G39" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H39" t="n">
         <v>32.45932575975219</v>
@@ -7251,22 +7253,22 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J39" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K39" t="n">
-        <v>236.9655055809358</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L39" t="n">
-        <v>534.697260562599</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M39" t="n">
-        <v>898.268624536118</v>
+        <v>905.3665017627701</v>
       </c>
       <c r="N39" t="n">
-        <v>1299.952780813051</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O39" t="n">
-        <v>1622.966287987609</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P39" t="n">
         <v>1622.966287987609</v>
@@ -7275,28 +7277,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S39" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T39" t="n">
-        <v>1173.163483952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U39" t="n">
-        <v>944.9608164894784</v>
+        <v>1439.366410996834</v>
       </c>
       <c r="V39" t="n">
-        <v>709.8087082577356</v>
+        <v>1204.214302765091</v>
       </c>
       <c r="W39" t="n">
-        <v>476.4433680388714</v>
+        <v>949.9769460368893</v>
       </c>
       <c r="X39" t="n">
-        <v>476.4433680388714</v>
+        <v>742.1254458313565</v>
       </c>
       <c r="Y39" t="n">
-        <v>476.4433680388714</v>
+        <v>534.3651470664026</v>
       </c>
     </row>
     <row r="40">
@@ -7306,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C40" t="n">
         <v>32.45932575975219</v>
@@ -7333,7 +7335,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K40" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L40" t="n">
         <v>107.0302722280248</v>
@@ -7351,31 +7353,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q40" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R40" t="n">
-        <v>361.2466016029501</v>
+        <v>129.490276430019</v>
       </c>
       <c r="S40" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="T40" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U40" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V40" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W40" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X40" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y40" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="41">
@@ -7412,13 +7414,13 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941459</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7427,31 +7429,31 @@
         <v>1396.317581748321</v>
       </c>
       <c r="P41" t="n">
-        <v>1569.862809315275</v>
+        <v>1569.862809315274</v>
       </c>
       <c r="Q41" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R41" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S41" t="n">
-        <v>1566.337429321495</v>
+        <v>1479.895958610329</v>
       </c>
       <c r="T41" t="n">
-        <v>1343.593509702263</v>
+        <v>1479.895958610329</v>
       </c>
       <c r="U41" t="n">
-        <v>1089.756626634517</v>
+        <v>1479.895958610329</v>
       </c>
       <c r="V41" t="n">
-        <v>758.6937392909463</v>
+        <v>1148.833071266758</v>
       </c>
       <c r="W41" t="n">
-        <v>405.9250840208321</v>
+        <v>796.0644159966438</v>
       </c>
       <c r="X41" t="n">
-        <v>32.45932575975219</v>
+        <v>422.5986577355639</v>
       </c>
       <c r="Y41" t="n">
         <v>32.45932575975219</v>
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>502.0484094927817</v>
+        <v>965.4031851870466</v>
       </c>
       <c r="C42" t="n">
-        <v>327.5953802116546</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D42" t="n">
-        <v>327.5953802116546</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E42" t="n">
-        <v>327.5953802116546</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F42" t="n">
-        <v>327.5953802116546</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G42" t="n">
-        <v>189.1830069708249</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H42" t="n">
         <v>111.7947023326189</v>
@@ -7491,25 +7493,25 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K42" t="n">
-        <v>201.1187329501918</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L42" t="n">
-        <v>498.850487931855</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M42" t="n">
-        <v>898.268624536118</v>
+        <v>546.7891136313476</v>
       </c>
       <c r="N42" t="n">
-        <v>1299.952780813051</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O42" t="n">
-        <v>1622.966287987609</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P42" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R42" t="n">
         <v>1541.568727888341</v>
@@ -7521,19 +7523,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U42" t="n">
-        <v>944.9608164894784</v>
+        <v>1173.163483952</v>
       </c>
       <c r="V42" t="n">
-        <v>709.8087082577356</v>
+        <v>1173.163483952</v>
       </c>
       <c r="W42" t="n">
-        <v>709.8087082577356</v>
+        <v>1173.163483952</v>
       </c>
       <c r="X42" t="n">
-        <v>709.8087082577356</v>
+        <v>1173.163483952</v>
       </c>
       <c r="Y42" t="n">
-        <v>502.0484094927817</v>
+        <v>965.4031851870466</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>139.6199360758255</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="C43" t="n">
-        <v>139.6199360758255</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="D43" t="n">
-        <v>139.6199360758255</v>
+        <v>1472.849648575274</v>
       </c>
       <c r="E43" t="n">
-        <v>139.6199360758255</v>
+        <v>1324.936554992881</v>
       </c>
       <c r="F43" t="n">
-        <v>139.6199360758255</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="G43" t="n">
-        <v>139.6199360758255</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H43" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I43" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J43" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K43" t="n">
-        <v>40.81344334191286</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L43" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M43" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N43" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O43" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P43" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q43" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R43" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S43" t="n">
-        <v>139.6199360758255</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T43" t="n">
-        <v>139.6199360758255</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U43" t="n">
-        <v>139.6199360758255</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V43" t="n">
-        <v>139.6199360758255</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W43" t="n">
-        <v>139.6199360758255</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="X43" t="n">
-        <v>139.6199360758255</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Y43" t="n">
-        <v>139.6199360758255</v>
+        <v>1622.96628798761</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>921.2627134053896</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C44" t="n">
-        <v>921.2627134053896</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D44" t="n">
-        <v>921.2627134053896</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="E44" t="n">
-        <v>852.1392691878377</v>
+        <v>1237.178035389365</v>
       </c>
       <c r="F44" t="n">
-        <v>442.299297473795</v>
+        <v>827.3380636753222</v>
       </c>
       <c r="G44" t="n">
-        <v>32.45932575975219</v>
+        <v>417.4980919612794</v>
       </c>
       <c r="H44" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I44" t="n">
         <v>32.45932575975219</v>
@@ -7649,13 +7651,13 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011316</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528323</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7670,28 +7672,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S44" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T44" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U44" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V44" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W44" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X44" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y44" t="n">
-        <v>921.2627134053896</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>957.7415918977863</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C45" t="n">
-        <v>783.2885626166593</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D45" t="n">
-        <v>634.354152955408</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E45" t="n">
-        <v>475.1166979499525</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F45" t="n">
-        <v>328.5821399768375</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G45" t="n">
-        <v>190.1697667360078</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H45" t="n">
-        <v>79.87620874347104</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I45" t="n">
         <v>32.45932575975219</v>
@@ -7728,19 +7730,19 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K45" t="n">
-        <v>236.9655055809358</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L45" t="n">
-        <v>534.697260562599</v>
+        <v>147.3709770270843</v>
       </c>
       <c r="M45" t="n">
-        <v>934.1153971668621</v>
+        <v>546.7891136313473</v>
       </c>
       <c r="N45" t="n">
-        <v>1190.717019112288</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O45" t="n">
-        <v>1513.730526286846</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P45" t="n">
         <v>1513.730526286846</v>
@@ -7752,25 +7754,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S45" t="n">
-        <v>1541.568727888341</v>
+        <v>1508.3316234539</v>
       </c>
       <c r="T45" t="n">
-        <v>1541.568727888341</v>
+        <v>1508.3316234539</v>
       </c>
       <c r="U45" t="n">
-        <v>1541.568727888341</v>
+        <v>1280.128955991378</v>
       </c>
       <c r="V45" t="n">
-        <v>1541.568727888341</v>
+        <v>1044.976847759636</v>
       </c>
       <c r="W45" t="n">
-        <v>1541.568727888341</v>
+        <v>790.739491031434</v>
       </c>
       <c r="X45" t="n">
-        <v>1333.717227682808</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y45" t="n">
-        <v>1125.956928917854</v>
+        <v>375.1276920609473</v>
       </c>
     </row>
     <row r="46">
@@ -7825,7 +7827,7 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q46" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R46" t="n">
         <v>261.5666648398646</v>
@@ -7982,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8067,10 +8069,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -8295,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M6" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8532,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>357.7767872515269</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8766,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>89.94082829865968</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304798</v>
+        <v>92.88803957954781</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>362.3381572675154</v>
       </c>
       <c r="N15" t="n">
-        <v>418.8785602873041</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>73.77211287831322</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.73813450275541</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9179,7 +9181,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714821</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,7 +9248,7 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>157.1342855878806</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9258,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>215.0958621574522</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>184.8055467452001</v>
       </c>
       <c r="N21" t="n">
         <v>455.0874215304797</v>
       </c>
       <c r="O21" t="n">
-        <v>209.1955478481123</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9726,13 +9728,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>337.5786953411716</v>
+        <v>63.84875129258599</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>73.77211287831322</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9954,16 +9956,16 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>391.3774455544766</v>
       </c>
       <c r="N27" t="n">
-        <v>203.2271928126416</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10191,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>157.1342855878805</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>63.84875129258623</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10431,13 +10433,13 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L33" t="n">
-        <v>296.5127271079359</v>
+        <v>186.173573874842</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,13 +10667,13 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K36" t="n">
-        <v>86.93262649026374</v>
+        <v>146.9565108232707</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>281.038292321383</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>455.0874215304797</v>
@@ -10680,7 +10682,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831322</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>429.4962025068241</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>455.0874215304797</v>
+        <v>203.2271928126416</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>73.77211287831321</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>99.7381345027554</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11139,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>228.2563757694029</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>251.9990040344215</v>
       </c>
       <c r="N42" t="n">
         <v>455.0874215304797</v>
@@ -11154,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>73.77211287831321</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>99.7381345027554</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711644</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>157.1342855878804</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>308.5394070542101</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>73.77211287831321</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23276,7 +23278,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>70.4143989329915</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>252.3860301008907</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23337,10 +23339,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>26.46205974607219</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23349,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>53.32505478072567</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23400,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23434,7 +23436,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I13" t="n">
-        <v>147.5019580580808</v>
+        <v>126.1137933559314</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>198.0222341697041</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>359.4100076662643</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23507,10 +23509,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>8.971932133631526</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>187.7594695105699</v>
@@ -23540,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>67.92324641509963</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23586,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>14.48020799703099</v>
+        <v>33.11095161242616</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23622,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23640,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23671,10 +23673,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I16" t="n">
-        <v>147.5019580580808</v>
+        <v>126.1137933559315</v>
       </c>
       <c r="J16" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>123.3497577082893</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23738,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>140.0114066867787</v>
+        <v>70.41439893299157</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23814,16 +23816,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23862,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23871,10 +23873,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>20.11711931552748</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>111.6529744195644</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23944,16 +23946,16 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3046124576955</v>
+        <v>186.5148647619667</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>186.7332506408622</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.7135041305339</v>
+        <v>307.9472396548871</v>
       </c>
       <c r="H20" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>187.7594695105699</v>
@@ -24017,13 +24019,13 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24032,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>227.0506879797184</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24048,25 +24050,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>118.9193814129652</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>52.35730895128832</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24148,7 +24150,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J22" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R22" t="n">
         <v>165.4090611368575</v>
@@ -24178,7 +24180,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.3046124576955</v>
@@ -24187,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>187.8398609411363</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>72.91723044926613</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>278.6148488808453</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G23" t="n">
         <v>414.7135041305339</v>
@@ -24224,7 +24226,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
-        <v>187.7594695105699</v>
+        <v>104.7535293122515</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24269,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24285,25 +24287,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>136.8988007610625</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>78.06520374043113</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24385,7 +24387,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J25" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>219.4103988718534</v>
       </c>
       <c r="T25" t="n">
-        <v>226.8162656893113</v>
+        <v>130.7556245257471</v>
       </c>
       <c r="U25" t="n">
         <v>286.3046124576955</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>25.05329603616934</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24452,13 +24454,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>238.8639493435109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
         <v>187.7594695105699</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24500,10 +24502,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>265.3887710859027</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24531,13 +24533,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>51.87912563814808</v>
       </c>
       <c r="I27" t="n">
         <v>78.54202280713804</v>
@@ -24570,13 +24572,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>52.33889480304347</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>109.4206823911419</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24646,7 +24648,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R28" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>219.4103988718534</v>
@@ -24655,7 +24657,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>126.2142705097871</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24680,13 +24682,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>232.3284380887191</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24725,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>265.3887710859022</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>104.344364468591</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>104.6391979828196</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24807,19 +24809,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24850,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>76.77696092765444</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I31" t="n">
         <v>147.5019580580808</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>165.4090611368575</v>
@@ -24889,13 +24891,13 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>217.4842067127176</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24923,10 +24925,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>414.7135041305339</v>
@@ -24935,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,19 +24970,19 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>18.3253598394146</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>244.6207347237977</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>58.62691059920414</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>100.8703289058999</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25044,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>21.57939819579914</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25129,10 +25131,10 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
-        <v>212.9428526967578</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>210.5438500021333</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25211,13 +25213,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>252.3860301008907</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>159.107959118565</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>141.7709902614114</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25299,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25318,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>134.0822771319449</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.104484466239654</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I37" t="n">
         <v>147.5019580580808</v>
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25445,16 +25447,16 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>165.6243353427146</v>
+        <v>109.6588881535606</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25485,7 +25487,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
         <v>78.54202280713804</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>44.15676256702858</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>20.66329634424409</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25549,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>68.56368370317315</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25570,7 +25572,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J40" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,16 +25593,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.02970078434429</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>219.4103988718534</v>
+        <v>123.3497577082893</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
         <v>286.3046124576955</v>
@@ -25676,13 +25678,13 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>139.5303437551935</v>
+        <v>53.95328775113853</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25707,22 +25709,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>24.01433129688883</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>32.57620082078746</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25761,10 +25763,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25789,25 +25791,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>114.9710806029469</v>
       </c>
       <c r="G43" t="n">
         <v>167.7266695472104</v>
       </c>
       <c r="H43" t="n">
-        <v>53.78821379088264</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I43" t="n">
         <v>147.5019580580808</v>
       </c>
       <c r="J43" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,13 +25830,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R43" t="n">
         <v>165.4090611368575</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
         <v>226.8162656893113</v>
@@ -25871,7 +25873,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>313.4981602968854</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>1.1344737448091</v>
@@ -25880,10 +25882,10 @@
         <v>8.971932133631583</v>
       </c>
       <c r="H44" t="n">
-        <v>333.4403157157206</v>
+        <v>140.0114066867786</v>
       </c>
       <c r="I44" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
         <v>220.5164804230398</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25947,22 +25949,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
-        <v>31.59930865325638</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,19 +25994,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>132.9224793013191</v>
       </c>
       <c r="T45" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26065,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>64.02970078434429</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.72592374140281</v>
+        <v>130.7556245257471</v>
       </c>
       <c r="S46" t="n">
         <v>219.4103988718534</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>525522.8163052835</v>
+        <v>525522.8163052833</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>525522.8163052832</v>
+        <v>525522.8163052835</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>525522.8163052832</v>
+        <v>525522.8163052835</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>525522.8163052833</v>
+        <v>525522.8163052835</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>525522.8163052835</v>
+        <v>525522.8163052836</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>525522.8163052835</v>
+        <v>525522.8163052833</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185699</v>
+      </c>
+      <c r="C2" t="n">
+        <v>492625.0619185698</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
-      <c r="C2" t="n">
-        <v>492625.06191857</v>
-      </c>
-      <c r="D2" t="n">
-        <v>492625.0619185699</v>
-      </c>
       <c r="E2" t="n">
+        <v>256354.6764775276</v>
+      </c>
+      <c r="F2" t="n">
         <v>256354.6764775277</v>
-      </c>
-      <c r="F2" t="n">
-        <v>256354.6764775276</v>
       </c>
       <c r="G2" t="n">
         <v>256354.6764775276</v>
       </c>
       <c r="H2" t="n">
-        <v>256354.6764775275</v>
+        <v>256354.6764775278</v>
       </c>
       <c r="I2" t="n">
-        <v>256354.6764775279</v>
+        <v>256354.6764775277</v>
       </c>
       <c r="J2" t="n">
         <v>256354.6764775276</v>
       </c>
       <c r="K2" t="n">
-        <v>256354.6764775276</v>
+        <v>256354.6764775275</v>
       </c>
       <c r="L2" t="n">
         <v>256354.6764775276</v>
       </c>
       <c r="M2" t="n">
-        <v>256354.6764775276</v>
+        <v>256354.6764775277</v>
       </c>
       <c r="N2" t="n">
         <v>256354.6764775278</v>
       </c>
       <c r="O2" t="n">
-        <v>256354.6764775277</v>
+        <v>256354.6764775278</v>
       </c>
       <c r="P2" t="n">
         <v>256354.6764775276</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910625</v>
+        <v>63059.94259910621</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26421,22 +26423,22 @@
         <v>312595.3744187171</v>
       </c>
       <c r="D4" t="n">
-        <v>312595.3744187172</v>
+        <v>312595.3744187171</v>
       </c>
       <c r="E4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="F4" t="n">
         <v>34482.31175973668</v>
       </c>
       <c r="G4" t="n">
+        <v>34482.31175973668</v>
+      </c>
+      <c r="H4" t="n">
+        <v>34482.31175973668</v>
+      </c>
+      <c r="I4" t="n">
         <v>34482.31175973667</v>
-      </c>
-      <c r="H4" t="n">
-        <v>34482.31175973667</v>
-      </c>
-      <c r="I4" t="n">
-        <v>34482.31175973668</v>
       </c>
       <c r="J4" t="n">
         <v>34482.31175973668</v>
@@ -26454,10 +26456,10 @@
         <v>34482.31175973668</v>
       </c>
       <c r="O4" t="n">
+        <v>34482.31175973668</v>
+      </c>
+      <c r="P4" t="n">
         <v>34482.31175973667</v>
-      </c>
-      <c r="P4" t="n">
-        <v>34482.31175973668</v>
       </c>
     </row>
     <row r="5">
@@ -26482,22 +26484,22 @@
         <v>27864.35291375757</v>
       </c>
       <c r="G5" t="n">
+        <v>27864.35291375757</v>
+      </c>
+      <c r="H5" t="n">
+        <v>27864.35291375758</v>
+      </c>
+      <c r="I5" t="n">
+        <v>27864.35291375757</v>
+      </c>
+      <c r="J5" t="n">
         <v>27864.35291375756</v>
       </c>
-      <c r="H5" t="n">
+      <c r="K5" t="n">
         <v>27864.35291375756</v>
       </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
         <v>27864.35291375756</v>
-      </c>
-      <c r="J5" t="n">
-        <v>27864.35291375757</v>
-      </c>
-      <c r="K5" t="n">
-        <v>27864.35291375757</v>
-      </c>
-      <c r="L5" t="n">
-        <v>27864.35291375757</v>
       </c>
       <c r="M5" t="n">
         <v>27864.35291375757</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50978.9872045435</v>
+        <v>50978.98720454338</v>
       </c>
       <c r="C6" t="n">
+        <v>131748.418736091</v>
+      </c>
+      <c r="D6" t="n">
         <v>131748.4187360912</v>
       </c>
-      <c r="D6" t="n">
-        <v>131748.4187360911</v>
-      </c>
       <c r="E6" t="n">
-        <v>27067.8416787867</v>
+        <v>27067.8416787866</v>
       </c>
       <c r="F6" t="n">
         <v>194008.0118040334</v>
@@ -26537,28 +26539,28 @@
         <v>194008.0118040334</v>
       </c>
       <c r="H6" t="n">
-        <v>194008.0118040333</v>
+        <v>194008.0118040336</v>
       </c>
       <c r="I6" t="n">
-        <v>194008.0118040336</v>
+        <v>194008.0118040335</v>
       </c>
       <c r="J6" t="n">
         <v>130948.0692049271</v>
       </c>
       <c r="K6" t="n">
-        <v>194008.0118040334</v>
+        <v>194008.0118040333</v>
       </c>
       <c r="L6" t="n">
-        <v>194008.0118040334</v>
+        <v>194008.0118040333</v>
       </c>
       <c r="M6" t="n">
         <v>152957.3139415855</v>
       </c>
       <c r="N6" t="n">
-        <v>194008.0118040335</v>
+        <v>194008.0118040336</v>
       </c>
       <c r="O6" t="n">
-        <v>194008.0118040335</v>
+        <v>194008.0118040336</v>
       </c>
       <c r="P6" t="n">
         <v>194008.0118040334</v>
@@ -26753,10 +26755,10 @@
         <v>146.571804419537</v>
       </c>
       <c r="H3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="I3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="J3" t="n">
         <v>146.571804419537</v>
@@ -26771,10 +26773,10 @@
         <v>146.571804419537</v>
       </c>
       <c r="N3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="O3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="P3" t="n">
         <v>146.5718044195371</v>
@@ -26805,7 +26807,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="H4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="I4" t="n">
         <v>405.7415719969023</v>
@@ -26826,7 +26828,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="P4" t="n">
         <v>405.7415719969023</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>209.8933976134044</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>369.7532147690989</v>
-      </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27421,10 +27423,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27436,16 +27438,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -27455,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>25.13709405364455</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27515,13 +27517,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>70.16565396168394</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27576,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>179.1878386400416</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27667,7 +27669,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27679,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,7 +27697,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27704,19 +27706,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27746,16 +27748,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>24.98181720745251</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>93.72371682090088</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27789,7 +27791,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>115.2022481737659</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27816,7 +27818,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27828,7 +27830,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>187.1155787390244</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>171.2136902881097</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27895,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>145.2236497783945</v>
@@ -27935,10 +27937,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>154.0770866281982</v>
+        <v>67.54709632399079</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27950,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,10 +27982,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28014,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>111.5091262846236</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28059,7 +28061,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>93.55107118671071</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I11" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J11" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L11" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N11" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H12" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K12" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O12" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H13" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J13" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L13" t="n">
         <v>39.29566048323129</v>
@@ -31932,7 +31934,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O13" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P13" t="n">
         <v>31.96707026225442</v>
@@ -31941,16 +31943,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S13" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I14" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J14" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L14" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M14" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N14" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R14" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S14" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T14" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32068,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H15" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I15" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J15" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K15" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O15" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R15" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
@@ -32145,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H16" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J16" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K16" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L16" t="n">
         <v>39.29566048323129</v>
@@ -32169,7 +32171,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O16" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P16" t="n">
         <v>31.96707026225442</v>
@@ -32178,16 +32180,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R16" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S16" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011537</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046567</v>
       </c>
       <c r="I20" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J20" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629222</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645908</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044664</v>
       </c>
       <c r="M20" t="n">
         <v>103.4642265438474</v>
       </c>
       <c r="N20" t="n">
-        <v>105.1383858978454</v>
+        <v>105.1383858978455</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971771</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737673</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134788</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T20" t="n">
-        <v>2.579369141091551</v>
+        <v>2.579369141091552</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809229</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.315267654789193</v>
       </c>
       <c r="H21" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885102</v>
       </c>
       <c r="I21" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K21" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409526</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253949</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864772</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975596</v>
       </c>
       <c r="O21" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100593</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601705</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326612</v>
       </c>
       <c r="R21" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422068</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32621,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483456</v>
       </c>
       <c r="H22" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177522</v>
       </c>
       <c r="J22" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K22" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412596</v>
       </c>
       <c r="L22" t="n">
-        <v>39.29566048323129</v>
+        <v>39.29566048323131</v>
       </c>
       <c r="M22" t="n">
-        <v>41.43176432141109</v>
+        <v>41.43176432141111</v>
       </c>
       <c r="N22" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039458</v>
       </c>
       <c r="O22" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172071</v>
       </c>
       <c r="P22" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R22" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118893</v>
       </c>
       <c r="T22" t="n">
-        <v>1.129323738970203</v>
+        <v>1.129323738970204</v>
       </c>
       <c r="U22" t="n">
         <v>0.01441689879536432</v>
@@ -32698,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H23" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I23" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J23" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K23" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L23" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M23" t="n">
         <v>103.4642265438474</v>
@@ -32722,16 +32724,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O23" t="n">
-        <v>99.27919642971769</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P23" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R23" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S23" t="n">
         <v>13.4271557515988</v>
@@ -32740,7 +32742,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,46 +32782,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H24" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I24" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J24" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K24" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L24" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M24" t="n">
-        <v>79.88163340864767</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N24" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O24" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P24" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R24" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S24" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T24" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,40 +32861,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H25" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I25" t="n">
-        <v>7.948516869177519</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J25" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K25" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L25" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M25" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N25" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O25" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P25" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R25" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S25" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T25" t="n">
         <v>1.129323738970203</v>
@@ -33883,22 +33885,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H38" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I38" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J38" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K38" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L38" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M38" t="n">
         <v>103.4642265438474</v>
@@ -33907,16 +33909,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O38" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P38" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R38" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S38" t="n">
         <v>13.4271557515988</v>
@@ -33925,7 +33927,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,46 +33967,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H39" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I39" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J39" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K39" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L39" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M39" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N39" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O39" t="n">
-        <v>75.01019504100591</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P39" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R39" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S39" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T39" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,40 +34046,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H40" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I40" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J40" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K40" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L40" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M40" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N40" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O40" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P40" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R40" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S40" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T40" t="n">
         <v>1.129323738970203</v>
@@ -34120,22 +34122,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H41" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I41" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J41" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K41" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L41" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M41" t="n">
         <v>103.4642265438474</v>
@@ -34144,16 +34146,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O41" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P41" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q41" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R41" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S41" t="n">
         <v>13.4271557515988</v>
@@ -34162,7 +34164,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,46 +34204,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H42" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I42" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J42" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K42" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L42" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M42" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N42" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O42" t="n">
-        <v>75.01019504100591</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P42" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R42" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S42" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T42" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,40 +34283,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H43" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I43" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J43" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K43" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L43" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M43" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N43" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O43" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P43" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R43" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S43" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T43" t="n">
         <v>1.129323738970203</v>
@@ -34787,10 +34789,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="O3" t="n">
         <v>43.28534947792182</v>
-      </c>
-      <c r="O3" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -35015,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M6" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35252,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>226.4350751681936</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35407,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
@@ -35428,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>177.5326105223148</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L12" t="n">
-        <v>19.83962944132495</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>403.4526632366292</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
-        <v>405.7415719969023</v>
+        <v>43.54219004597043</v>
       </c>
       <c r="O12" t="n">
         <v>326.276269873291</v>
@@ -35507,7 +35509,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M13" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P13" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K14" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L14" t="n">
         <v>274.8802469209098</v>
@@ -35665,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696147</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K15" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>403.4526632366293</v>
+        <v>300.0857567541447</v>
       </c>
       <c r="N15" t="n">
-        <v>369.5327107537267</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35805,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M16" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O16" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P16" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35899,7 +35901,7 @@
         <v>249.9811662707763</v>
       </c>
       <c r="P17" t="n">
-        <v>175.2982096635893</v>
+        <v>175.2982096635898</v>
       </c>
       <c r="Q17" t="n">
         <v>53.63987744680306</v>
@@ -35966,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>300.7391464461244</v>
+        <v>87.03308673054592</v>
       </c>
       <c r="M18" t="n">
         <v>403.4526632366293</v>
@@ -35978,10 +35980,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P18" t="n">
-        <v>141.323749279139</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167968</v>
+        <v>38.0611576216797</v>
       </c>
       <c r="K20" t="n">
         <v>179.0082576726433</v>
@@ -36127,7 +36129,7 @@
         <v>274.8802469209098</v>
       </c>
       <c r="M20" t="n">
-        <v>322.6315268094071</v>
+        <v>322.6315268094072</v>
       </c>
       <c r="N20" t="n">
         <v>313.0722467132387</v>
@@ -36139,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680308</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>29.03928828696148</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L21" t="n">
-        <v>300.7391464461244</v>
+        <v>300.7391464461245</v>
       </c>
       <c r="M21" t="n">
-        <v>403.4526632366293</v>
+        <v>122.5531462318295</v>
       </c>
       <c r="N21" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O21" t="n">
-        <v>141.6094984446738</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>244.6906557616239</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243109</v>
       </c>
       <c r="L22" t="n">
         <v>66.88568574354744</v>
       </c>
       <c r="M22" t="n">
-        <v>81.01564128325168</v>
+        <v>81.0156412832517</v>
       </c>
       <c r="N22" t="n">
         <v>84.57878194962316</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576039</v>
       </c>
       <c r="P22" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K23" t="n">
         <v>179.0082576726433</v>
@@ -36376,7 +36378,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K24" t="n">
         <v>177.5326105223149</v>
@@ -36446,13 +36448,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N24" t="n">
-        <v>288.2328458075942</v>
+        <v>14.50290175900862</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q24" t="n">
         <v>110.3391532330937</v>
@@ -36516,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L25" t="n">
         <v>66.88568574354744</v>
@@ -36528,10 +36530,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O25" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P25" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36674,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M27" t="n">
-        <v>403.4526632366293</v>
+        <v>329.1250450411059</v>
       </c>
       <c r="N27" t="n">
-        <v>153.8813432790642</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
@@ -36911,16 +36913,16 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K30" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>300.7391464461244</v>
+        <v>87.03308673054582</v>
       </c>
       <c r="M30" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N30" t="n">
-        <v>14.50290175900885</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
@@ -37151,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>226.4115282506012</v>
+        <v>116.0723750175073</v>
       </c>
       <c r="M33" t="n">
         <v>403.4526632366293</v>
@@ -37166,7 +37168,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>60.02388433300691</v>
       </c>
       <c r="L36" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
-        <v>218.7858918080124</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N36" t="n">
         <v>405.7415719969024</v>
@@ -37400,7 +37402,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>110.3391532330937</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K38" t="n">
         <v>179.0082576726433</v>
@@ -37561,7 +37563,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>177.5326105223149</v>
@@ -37628,16 +37630,16 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M39" t="n">
-        <v>367.2438019934535</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N39" t="n">
-        <v>405.7415719969023</v>
+        <v>153.8813432790642</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L40" t="n">
         <v>66.88568574354744</v>
@@ -37713,10 +37715,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O40" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P40" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K41" t="n">
         <v>179.0082576726433</v>
@@ -37798,7 +37800,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.63987744680266</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K42" t="n">
-        <v>141.3237492791391</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M42" t="n">
-        <v>403.4526632366293</v>
+        <v>189.7466035210509</v>
       </c>
       <c r="N42" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O42" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L43" t="n">
         <v>66.88568574354744</v>
@@ -37950,10 +37952,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O43" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P43" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>38.06115762167969</v>
       </c>
       <c r="K44" t="n">
-        <v>179.0082576726429</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L44" t="n">
         <v>274.8802469209098</v>
@@ -38096,22 +38098,22 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K45" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>300.7391464461244</v>
+        <v>87.03308673054569</v>
       </c>
       <c r="M45" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N45" t="n">
-        <v>259.1935575206327</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O45" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q45" t="n">
         <v>110.3391532330937</v>
